--- a/Job Hunter/jeff.xlsx
+++ b/Job Hunter/jeff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P2\Goldeneyez-P2\Job Hunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Programming\Revature\Revature UIPath Batch\Goldeneyez-P2\P2\Goldeneyez-P2\Job Hunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2172A-31B7-4CAE-9115-8363E94B38D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FF8B27-E5C9-443B-B53A-531CF921A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{675AB6FF-C620-4FC5-8EE5-D28C04095C98}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{675AB6FF-C620-4FC5-8EE5-D28C04095C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>JobTitles</t>
   </si>
@@ -54,158 +54,164 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>Omicrown</t>
-  </si>
-  <si>
-    <t>New York, NY 10007</t>
-  </si>
-  <si>
     <t>Full-time</t>
   </si>
   <si>
-    <t>Hello! We're looking for an Accountant. You will be responsible for preparing and analyzing financial records for our company.Responsibilities: Prepar...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AuAjYKnBHsdkcMxrD7ZJITXxV72vImVt5xOyKRJQecNBgedj0yQpzZcuYYx2UBEYqMQYZpDT77SbNKftDCKQuCcjubyQPwWOMMOLCQEYlpsZAaSiglmv-U8G4UXeMeMiPxtSmC-7HlPjKlgSeHxexSW6NYGMeHLtp9xQvKy_vnbtmV41xyDna16JUXox7BbN51jwzbgIgFMv7zEeSee1G2RISOO1BPuI8IY37mjtpKPljSsYd3x5iWT8DK4KRPuc6IsNzBDnqFLmiXQNxYMNegaV33q74EV5YQs2LoNMWhm_oMG-lqZBxCVj4E7kToP-4pbnoLH7GIBgzTdwTM3K8S8IJDNMuXwMasudSwVddPviM2iWi4uzZJir8FneLpDUG01s6cHMhOcL2NQR-0ofcfOJYFoKAfTPtIyZcroFCo8r97B79SRGIPsty7HnP-zTJK4Ujc_AzQKX87MH7lqGxZvUJiA_fLtsyWXc2OUiy6UhB8ikeqiK4I&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Senior Accountant, UBS Arena</t>
-  </si>
-  <si>
-    <t>Delaware North</t>
-  </si>
-  <si>
-    <t>Elmont, NY 11003</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
-    <t>The Opportunity
-Delaware North Sportservice is searching for a Senior Accountantr to join our team at UBS Arena in Elmont, New York. In this role, you...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CKn19YeOHCiV_HSV2-b8di0w-lxofSt20zFtomT8hVC-vk4OkT9dvWYHbQqWjtUb-fj7F0H0m3gC60YdzuJvlKo3jsK5T2JLq6KqqgbrD0LbTeupehIE-uCryW4dAIqx9acoUEZDr7yG3rZMtxmg2pPmKp-gGDtYOvAkkcDc_GRVbSAsbgQ3FAaYpLL4jrML1HmeEGSEOZwUNl28tDaA4Hd5bMV_tFfZi_LdRjhHTi4KqI-YMxe_NDTPGoRlN2Gmmke9W8jqx9er7cVE9SE0c8PhFZKoX85Rwsapu5-jK5ULnCZE-VBLh5jKz2GEvt9a4dQE5kniSP4JTEBhlJL54BMuKBBQeCXK4gzl-R8qaoNW0IJ88nAGKfYOADPEHrrpWX5u-WwhkFEdawc2H2MwIQUTwG8IBH87EdDKXYhuQAq5gMIgwr66rCb9DAAQlpC9_f9jDlasTnQUvXBN3Lld1c3m1q7pxep1DQDyl7asyrKNRzBFxFX32tWrw-FhqWGpn6nECp7r9e1xBzLBcCBDbMiqJGJO_Pp21P2X14ikWWk8jMAOdPh9IOwMDd6fnnin-MLct7f95cUkNx4WXI8aB1iMiag_oPMMnEakd6Rjsqgj4YHVCGwSbeY625oW3PAXWjQKyN82ZYo2oufUm7RDihmRYeKNMpXTj7Zif3b_T3esz9O9PYopu-B8Aa-4ghb_ATjM4V4STKrNMxzdNo0vW8ydYt2yo4fH2iB-hgWiXnN5-sUJtYQWN_&amp;p=1&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
     <t>Senior Accountant</t>
   </si>
   <si>
-    <t>YMCA of Greater New York</t>
-  </si>
-  <si>
-    <t>New York, NY 10023</t>
-  </si>
-  <si>
-    <t>Full-TimeTemporarily RemoteThe YMCA of Greater New York is here for all New Yorkers — to empower youth, improve health, and strengthen community. Foun...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AMCrNKSkynvj8r8Oyp-F6D02gPTEdkIcfkgIVZjah5gnkPxV4NPTTEzKx5d9Qstmn7yRsFXEDPwRs9i93lqdCwEiIZliN_qB5oIwK809PilLYlr1K7JFzvnow2PiuV6pN2gAygwhljjpzOkTZuTX_U5B6a7Ea3T-5IG2y_ei3ypxZx57oRQHZ81PYcRaK0K0GDYOa4bG4y13K9FohG4Wws1ddUzZjENS1neEN4Hr61JjhQf8F5Cb4hJj_N2owh73ENblf4pmARUvpdIcdd4p_aLdqfOFuKUFOIhe9SBlyXnxm7wCWNMTFD7WU6OZvkqSUf4snUqjOyYZVSQYVVQVC8BrRA3czcozfYEMx4QHxl9t7cRP5Bp4xXT5DOs4V_h5rPoiTzFvagrqmQ3jKPJJhDOcmM3T3qOad_QY7S6Z2c5Z5sBxXCVAgUj9gm8y8IDcAdJDTcr6ret51QqfypjNlmuXdb39_opujpzONbiGWzTpueZsRNygZoHwLGGWAbxyGeTYeXEoHjApfdrIJB1iEr&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Lead Accountant, Reinsurance</t>
-  </si>
-  <si>
-    <t>Liberty Mutual Insurance</t>
-  </si>
-  <si>
-    <t>New York, NY 10001</t>
-  </si>
-  <si>
-    <t>At Liberty Mutual, our purpose is to help people embrace today and confidently pursue tomorrow. That's why we provide an environment focused on openne...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=01a22c904fc30a82&amp;fccid=f33a9750898d12d4&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>International Tax Accountant</t>
-  </si>
-  <si>
-    <t>Tiffany &amp; Co.</t>
-  </si>
-  <si>
-    <t>Parsippany, NJ 07054</t>
-  </si>
-  <si>
-    <t>The international senior tax accountant will closely work with international tax director as the primary reporting person as well as domestic tax team...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=2bda7b473bf8825c&amp;fccid=329e52936d287237&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Aegon</t>
-  </si>
-  <si>
-    <t>Harrison, NY</t>
-  </si>
-  <si>
-    <t>Responsibilities
-Research outstanding discrepancies through mainframe queries and Crystal reports. Prepare appropriate correcting entries.
-Assist with...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=ca38c3ca3f6c9b61&amp;fccid=817dbf75ac000d11&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Northwell health</t>
-  </si>
-  <si>
-    <t>Westbury, NY 11568</t>
-  </si>
-  <si>
-    <t>Job Description
-Job Description
-Assists with the preparation of monthly financial analysis reports, the compilation of annual budgets, and collecting ...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZWWK9Dkq8A_dUHCdj_uLeVWsWS91-0wEhlKVHwzSsO8rbL6Nho0VUrRbtCkMJTO9GEb7_QKEM2L9QDFdFNgmebBCBQFQ5ZwX0zeicNzs0niaAbxjWQpBurYMnsGLwzxw0ovif-VT7tCcLCbzrYpN98KiM6QsD3FNGpbWlnYlr21FePXuDDJwaHNFnwJMc1cL3hqevH6JXSSlw_FK1zN3w11ADax8ZJreUsQYFW1oEIYSrhoxKmqdSYJlAPeefMfaSPusG_-FBKWWbpFynTmqYBQxeOHvNWbFU2ackWPsh7dO8cyRjFpvLw35jbFMJspS3iQqGw789tmbwGyw5GRZhvl7bppt0NthRbd2l2fjcIbEIhQPSuuk2zyEfRJP-2NKLFTTtzzMN4gtXl_pXG1x9AfQ0OabhChK8AyYUYyj0dR0TsRZROKireSrQkQqTDSQxR5OaHcGz_qfMgCvqhJsnTt7Ho7wVv2kmgA09S_k3SISnqaynnVPTxg2AevdVxJEh_23ZlEf0BW02hoaILJdP722caX0V0rGV_aoxiWShohcEOfHsJ4O4n58LECbEDDA_2H8P-1Tb5gdHJmuboIQdUag5pCXLpzRGD18MVbCehJteTcCdPnF4_aRU4p_8kGk0wYsn7E_62c7s6oWz3sIpertxMWkRnHAxn6HJMbJD0D90fTwskpiG10msoSMV6PN3HZnARZ97arlYmvpFcso8TTv3nthw6jnjz4_-9v8wUo2Begt73wGXCbNcTv_yT_nJymofSVP9hRWrBvDv42_YYY00o6VtOpLF5jf6yKd1LpQqL_Xd2hVH6CJXxd3i1e0T-IetjEaUK2b_WA4bUuPkBKQyA5UfIHd4flxY9O60CQt4IYNydwhUUEylPN-NJYyr6w4FPdUISWNifFisOlmjXr-brlpyXK0p-UBQ3ni69xnAkDcZUgrGUc9-t4VGJuRDCH8n0FTI0o5U9uwID6fGGgkD-tL5Mqksg2QF3O0M2w==&amp;p=6&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Staff Accountant - NY, NY</t>
-  </si>
-  <si>
-    <t>Your Part-Time Controller, LLC</t>
-  </si>
-  <si>
-    <t>New York, NY 10018</t>
-  </si>
-  <si>
-    <t>Overview:
-Either a Full-Time or Part-Time Opportunity
-Your Part-Time Controller works with nonprofits because they do good deeds for society. Our emp...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DN0uKknIRIeHRZyobcf3FRiQlpXuSIu20Fm8rTPpuaEScs5ILohoWoCsyWJ4d6sf_KW_vToU7N4fR9jkXdWAhk2qns99GxRgAm4Ncz03_i_D5D648u7H6didrRuJFofLtP1wfWe1p7cQ8WbTdBVP8i9vyKgc7LHeoWhcb5f5OjAHzpMrsxwWv7KLZ1UBHysVEswORCHTxBpse1D8JglGKlrEB6_enl4qj-mzFoGRBV6WqOeosekoXsWSC32O7Bfz2pWGh9WisbRx_l3L8K2FPXZ6ROfCCjNcdpT94Ya9WaIwiXlxXPcySZ-AgiD-6oQN4RF4xJ1dKojOJ2YKdQloI6zZzWI6H4XCnUrgRZP397FnsE5UlmW0iRpuZgqMSq9b_l5-VbB0EdQWrVPnuzKk64RzgyKn5rXKArz6qnjM_O-ENunl2Fy1_UtPS9pkPzOrHt-g7ARou1x_ypF08AS8MvcVlToyNt77Ur35572ks6BrwHJ72vlhwMds0lq1ZByyAXGKlpWmHhobS911bLgMxi0NUqz_Tw3PkJ_4SHDVB0FuUn3JuUAu-3UAKojeMmoolMVDvix0tGsZ_I3RUYVTWR6cmCw_Tt5djvyfAG6Ps72tjkWuT06GujYX7rnR9b-5weFCzsikx0uoZfWHrGr5w-AZlOPHZcTKj_VVmOh2eitHGipcUv49O94B9sglWY2LXmEW7TxQGRy4WHw0K8j6nxBFabcdIqlWKqpzd0pZIS5JcEb7bRDx1uhRX_RDr0wal2AwMB3pllIAa5WgnKl8TwT_3WImdX8PeCrD6DAXvg8-BZlu8-KJus2PAHHmgGTjv1Eqpfl12vdw==&amp;p=7&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Comptroller</t>
-  </si>
-  <si>
-    <t>Roosevelt Island Operating Corporation</t>
-  </si>
-  <si>
-    <t>Roosevelt Island, NY</t>
-  </si>
-  <si>
-    <t>TITTLE: ComptrollerDEPARTMENT: FinanceJOB TYPE: Full-time, ManagerialSALARY RANGE: $140,000 - $150,000/AnnuallyPOSITION SUMMARY: Reporting to Chief Fi...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BdDHiSlq2TKVYTvK036ioTcRDjelCKzvFOpLFiF--0iRB04d0zyYFAIaCJyW_7xc5XJ7vokvZFUGWC7_T_Vc216F4xKe_-IgyidMlxkflFN1rrgxfjLhwdVzr57yV07bpSPBev_0nZszorL7aRRPz2YLe05vnIj3eZBwMPyiwNHwClAjzXFPvmdGDopa6dOP5YVs19LLq0cA1lJXCwTM_9wXOIyZJmdgbRhZOR2kzH_Mu5rEwArO__1dGC8h190xkr8vDxWy9Vp2QwNFxQR0T4bD1IoDdRxWuNvtm-rfh8PqBvc-zOJCK10a-qe65Fys-q13cMd7QcKP-3b5H6nXdUIfMizobaRen3TWUddeaNZrwrA_buPzeEKAHMQ6TnM8UHKcL7--8ck38MVWLZycbYVQ5WV43nogbr1ppbDlAB-9aqhu3oJfSajU7wQtv37VE4D7m9NzhPm2urYrojbkXNGPr48Y3jZ9s=&amp;p=8&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Established Real Estate Management Company</t>
-  </si>
-  <si>
-    <t>Great Neck, NY 11021</t>
-  </si>
-  <si>
-    <t>Senior Accountant/CPA needed for established residential real estate firm. Minimum 15 years related experience. Complete understanding of partnership ...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0A1HZAKPcfu8yZZNUgeFUqiPKSZjBoTSLLTEeZvTQEn8iamETeeDSLfwCLzLTX5NidolXkSWcISBU8ViCak6aCa4iwJlJtyTAs2GEFzRk436Z_kBHX-Ua2w0-N2HlaPfvR6FsWZ6W8Oexq6ojOlXAaDBEu79ttWxitwJqJruq1lK_q0SHPJt1cnYflMDeAM61qOAt5SbeaYBon-5r-XOn6FCPUE-xNiVaOAmDnFOyY2DzIAHArlbZHoY3-u38BLA8Ob19STfUla-tjkEyBBhPH_vrcnVyQTjHwiVeZEM5eYKz8UGcVhCKp6y_TQqqifPNtKH3ksQBUgaIagByMsTf6xyE9YuMtOdxRf3alFn6GlldOdGLzVKzer0xSfcgR--kI5zsGbzhCKjfLR35s57X4zp7CKElSoItlN4QyC39IAz9fUcqxVm1uk5YWD2QmEC7m8bJ2mpsTZtHPfwikTw94nbHGpouWpXDo=&amp;p=9&amp;fvj=1&amp;vjs=3</t>
+    <t>Revenue Accountant</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Finance
+Accounting
+We are looking for a Revenue Accountant to support the global revenue accounting operations &amp; revenue close processes for Spotify’s...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=6fee3d803ae69a70&amp;fccid=fe404d18bb9eef1e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Jr. Accountant</t>
+  </si>
+  <si>
+    <t>Hugo Boss</t>
+  </si>
+  <si>
+    <t>55 Water St, New York, NY 10041</t>
+  </si>
+  <si>
+    <t>HUGO BOSS is one of the leading premium fashion and lifestyle companies with around 14,700 employees worldwide. As diverse as we are at HUGO BOSS, we ...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=5b7c07a55106d02f&amp;fccid=d56baf8d322ea311&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Staff Accountant</t>
+  </si>
+  <si>
+    <t>NBCUniversal</t>
+  </si>
+  <si>
+    <t>New York, NY 10112</t>
+  </si>
+  <si>
+    <t>JOB RESPONSIBILITIES:
+Coordinate Accounts Payable function for entire organization, including managing workflow of all invoices through internal Accou...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=eaededa7d4d4d703&amp;fccid=35d653c09c2712b6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Temp Staff Accountant</t>
+  </si>
+  <si>
+    <t>Madison Square Garden Entertainment</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>Overview
+About Madison Square Garden Entertainment Corp.
+Madison Square Garden Entertainment Corp. (MSG Entertainment) is a leader in live entertainme...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=d496e279a82e7de1&amp;fccid=4d2b33d40412d480&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>2022 MLB Gameday Compliance Monitor (Seasonal)</t>
+  </si>
+  <si>
+    <t>Major League Baseball</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>The job of the Gameday Compliance Monitor (GCM) is to ensure that all Club Personnel, adhere to all gameday requirements of the Basic Agreement, Major...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4a37ea8d0eff04b7&amp;fccid=6262eae176df0db9&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Accountant-Financial Division</t>
+  </si>
+  <si>
+    <t>Mount Sinai</t>
+  </si>
+  <si>
+    <t>Strength Through Diversity
+Ground breaking science. Advancing medicine. Healing made personal.
+This position, which reports to the Assistant Controlle...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=d78601d17e0cf0e7&amp;fccid=c007936ceb766fe5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Junior Accountant</t>
+  </si>
+  <si>
+    <t>GeistM</t>
+  </si>
+  <si>
+    <t>New York, NY 10012</t>
+  </si>
+  <si>
+    <t>Job Title:  Junior AccountantWho we are: GeistM is a full-funnel performance marketing company transforming how brands acquire customers at scale. Rea...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/GeistM/jobs/Junior-Accountant-df20b5ef011c8f28?fccid=2e80b0c582249621&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Accountant, General Accounting</t>
+  </si>
+  <si>
+    <t>Catholic Health Services of Long Island</t>
+  </si>
+  <si>
+    <t>Rockville Centre, NY 11570</t>
+  </si>
+  <si>
+    <t>At Catholic Health, our primary focus is the way we treat and serve our communities. We work collaboratively to provide compassionate care and utilize...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=c8744716edc292eb&amp;fccid=32f41a616bb78cc8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Accounting Associate</t>
+  </si>
+  <si>
+    <t>World Animal Protection</t>
+  </si>
+  <si>
+    <t>Manhattan, NY 10018</t>
+  </si>
+  <si>
+    <t>Accounting Associate PermanentSalary: $60,000 - $70,000 per annumLocation: Remote working Open until closedAccounting Associate – The RoleThe Accounti...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/World-Animal-Protection/jobs/Accounting-Associate-1f56bae843ff5a96?fccid=560ec057378902d7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>NYCHSRO/Medreview</t>
+  </si>
+  <si>
+    <t>199 Water Street, New York, NY 10038</t>
+  </si>
+  <si>
+    <t>Full Job DescriptionWe are seeking a bright individual who can assist Finance Director on various accounting and finance related tasks.· Assist in mon...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C2ruSLbldHgJRxGqX58M4ekFWuaOJ1Xy3nZgzYPyc2KxJqVxnM4ADfT0eqL7UoQd7WEbBa2-Yxq_7c068MT0ywswjgYT1JcTr7PJxf00u0dNWqINYAH2hpseWdWFqlU-pmYG2873ZD5_IX3O1x_-k7HXpC-27nuqwOSfAUkxM7WX8laSvBusWc66VfJceMqT3D0QDxLcxO9YV8lFN6ZFHkLXsiZg7CSwnj1WCrTqETJa39LxDg-2gEbaFBvwDhCwWre7hPEwM8zSof-zGXnUzTzRzZ_H5QnXTQlxJfuS5I6-smADXvzgqZtpPytNXdALLmhGbDUP3_VZqc9dcP2qkE3-RcZ8ES8C-7KFyezoDv7ktBzccv5Cgfll2qvKcg35wDAwOF7Yb3JGEEbECi_cAxFWUEOpnbeoDfzSIQp28ACExWrr5FhS25HzIao5EWP8oRbxzy9DrRJxwfH6Bn5KCDi7mCpV3nOdApoXPwV0_7NG9k3Yn4COCbg_8ocuE8oM4=&amp;p=9&amp;fvj=1&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -241,9 +247,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,16 +573,16 @@
       <selection activeCell="B11" sqref="B1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,204 +602,204 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
